--- a/wijzigingsvoorstel/media/20180328_IMGeo2018_classificaties_concept_wijzigingsvoorstel.xlsx
+++ b/wijzigingsvoorstel/media/20180328_IMGeo2018_classificaties_concept_wijzigingsvoorstel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\P297 BGTIMGeo standaard\3 Werkdossier\IMGeo 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\GitHub\Geonovum\IMGeo2018\wijzigingsvoorstel\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="618">
   <si>
     <t>Object</t>
   </si>
@@ -2371,12 +2371,34 @@
   <si>
     <t>Dwars op het water opgeworpen waterbouwkundige constructie om water te keren, te beheersen, te leiden of te verdelen.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fietsenkluis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fietsparkeervoorziening</t>
+    </r>
+  </si>
+  <si>
+    <t>IMGeo-tabel objecttypen, classificaties en geometrietypen</t>
+  </si>
+  <si>
+    <t>concept-versie 28 maart 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2514,6 +2536,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2559,7 +2589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2620,6 +2650,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6126,11 +6157,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E455" sqref="A1:E455"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6146,63 +6175,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -6211,7 +6232,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -6220,10 +6241,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -6231,8 +6249,8 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -6240,23 +6258,20 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -6264,32 +6279,32 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -6297,20 +6312,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -6318,23 +6336,20 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
@@ -6343,16 +6358,22 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
@@ -6361,7 +6382,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
@@ -6369,32 +6390,26 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
@@ -6403,98 +6418,104 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
+      <c r="B25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
-      <c r="B26" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="C29" s="1" t="s">
-        <v>490</v>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
-      <c r="C30" s="1" t="s">
-        <v>491</v>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>490</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>597</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
+      <c r="C32" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="C33" s="3" t="s">
-        <v>32</v>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -6503,7 +6524,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -6512,7 +6533,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -6520,11 +6541,8 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -6533,7 +6551,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="C38" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -6541,8 +6559,11 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -6551,7 +6572,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -6560,7 +6581,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="C41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -6568,23 +6589,17 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
-      <c r="B42" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -6592,107 +6607,110 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
-      <c r="C44" s="1" t="s">
-        <v>345</v>
+      <c r="B44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
-        <v>322</v>
+      <c r="A46" s="26"/>
+      <c r="C46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
+      <c r="A48" s="26" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>595</v>
-      </c>
+      <c r="B49" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
-      <c r="C50" s="1" t="s">
-        <v>533</v>
+      <c r="B50" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
+      <c r="B51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
-      <c r="B52" s="3" t="s">
-        <v>26</v>
+      <c r="C52" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
-      <c r="B53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="C54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
+      <c r="B54" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
       <c r="B55" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>7</v>
@@ -6701,7 +6719,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
       <c r="C56" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>7</v>
@@ -6709,8 +6727,11 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
+      <c r="B57" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C57" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>7</v>
@@ -6719,7 +6740,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="C58" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>7</v>
@@ -6728,7 +6749,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="C59" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>7</v>
@@ -6736,11 +6757,8 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
-      <c r="B60" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>7</v>
@@ -6749,7 +6767,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="C61" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
@@ -6757,8 +6775,11 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>7</v>
@@ -6767,7 +6788,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="26"/>
       <c r="C63" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>7</v>
@@ -6776,7 +6797,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
       <c r="C64" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>7</v>
@@ -6784,23 +6805,17 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
       <c r="C66" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>7</v>
@@ -6809,19 +6824,22 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
       <c r="B67" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>48</v>
+        <v>534</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
       <c r="C68" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>7</v>
@@ -6829,8 +6847,11 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
+      <c r="B69" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C69" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>7</v>
@@ -6839,7 +6860,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
       <c r="C70" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>7</v>
@@ -6848,7 +6869,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
       <c r="C71" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>7</v>
@@ -6857,48 +6878,48 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="26"/>
       <c r="C72" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
-        <v>54</v>
+      <c r="A73" s="26"/>
+      <c r="C73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
-      <c r="B74" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
+      <c r="C74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>56</v>
+      <c r="A75" s="26" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="26"/>
-      <c r="B76" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B76" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
       <c r="B77" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>56</v>
@@ -6907,59 +6928,56 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="26"/>
       <c r="B78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="26"/>
+      <c r="B80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="26" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="26"/>
-      <c r="B83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B83" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="26"/>
-      <c r="C84" s="3" t="s">
-        <v>29</v>
+      <c r="B84" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>7</v>
@@ -6967,8 +6985,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="26"/>
+      <c r="B85" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C85" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>7</v>
@@ -6976,11 +6997,8 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="26"/>
-      <c r="B86" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>7</v>
@@ -6989,7 +7007,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="26"/>
       <c r="C87" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
@@ -6997,8 +7015,11 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="26"/>
+      <c r="B88" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>7</v>
@@ -7007,7 +7028,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="26"/>
       <c r="C89" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
@@ -7016,7 +7037,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="26"/>
       <c r="C90" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>7</v>
@@ -7024,11 +7045,8 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="26"/>
-      <c r="B91" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>7</v>
@@ -7037,7 +7055,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
       <c r="C92" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
@@ -7045,8 +7063,11 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="26"/>
+      <c r="B93" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C93" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>7</v>
@@ -7055,7 +7076,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="26"/>
       <c r="C94" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
@@ -7064,7 +7085,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="26"/>
       <c r="C95" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>7</v>
@@ -7072,89 +7093,89 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="26"/>
-      <c r="B96" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="19" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="27"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="26"/>
       <c r="C97" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="26"/>
       <c r="B98" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="27"/>
+      <c r="C99" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="26"/>
+      <c r="B100" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="26"/>
-      <c r="C99" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
-        <v>324</v>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="26"/>
-      <c r="B101" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
+      <c r="C101" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
-      <c r="B102" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>7</v>
+      <c r="A102" s="26" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="26"/>
-      <c r="B103" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B103" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="26"/>
       <c r="B104" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -7163,7 +7184,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="26"/>
       <c r="B105" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
@@ -7172,7 +7193,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="26"/>
       <c r="B106" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>7</v>
@@ -7181,7 +7202,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="26"/>
       <c r="B107" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>7</v>
@@ -7190,10 +7211,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="26"/>
       <c r="B108" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>7</v>
@@ -7201,8 +7219,8 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="26"/>
-      <c r="C109" s="3" t="s">
-        <v>75</v>
+      <c r="B109" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>7</v>
@@ -7211,7 +7229,10 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="26"/>
       <c r="B110" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>7</v>
@@ -7219,8 +7240,8 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="26"/>
-      <c r="B111" s="3" t="s">
-        <v>77</v>
+      <c r="C111" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>7</v>
@@ -7229,172 +7250,169 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="26"/>
       <c r="B112" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="26"/>
       <c r="B113" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="26"/>
       <c r="B114" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="26"/>
+      <c r="B115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="26"/>
+      <c r="B116" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="26"/>
-      <c r="C115" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="26"/>
-      <c r="C116" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D116" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="26"/>
       <c r="C117" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="26"/>
+      <c r="C118" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="26"/>
+      <c r="C119" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="26"/>
-      <c r="B118" s="3" t="s">
+      <c r="D119" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="26"/>
+      <c r="B120" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="26"/>
-      <c r="B119" s="3" t="s">
+      <c r="D120" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="26"/>
+      <c r="B121" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="26"/>
-      <c r="C120" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="26"/>
-      <c r="C121" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D121" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="26"/>
       <c r="C122" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="26"/>
+      <c r="C123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="26"/>
+      <c r="C124" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="26"/>
-      <c r="B123" s="3" t="s">
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="26"/>
+      <c r="B125" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="26"/>
-      <c r="B124" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="26"/>
+      <c r="B126" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="26"/>
-      <c r="C125" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="26"/>
-      <c r="C126" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D126" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="26"/>
       <c r="C127" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="26"/>
-      <c r="C128" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>344</v>
+      <c r="C128" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="26"/>
       <c r="C129" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>7</v>
@@ -7402,60 +7420,60 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="26"/>
-      <c r="C130" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
+      <c r="C130" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="26"/>
+      <c r="C131" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="26"/>
+      <c r="C132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="26"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="26" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="26" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="26" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="26"/>
-      <c r="B134" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="26"/>
-      <c r="B135" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="26"/>
-      <c r="B136" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B136" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="26"/>
-      <c r="C137" s="3" t="s">
-        <v>98</v>
+      <c r="B137" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
@@ -7463,8 +7481,11 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="26"/>
+      <c r="B138" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="C138" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
@@ -7473,7 +7494,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="26"/>
       <c r="C139" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
@@ -7482,7 +7503,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="26"/>
       <c r="C140" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>7</v>
@@ -7491,7 +7512,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="26"/>
       <c r="C141" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>7</v>
@@ -7499,11 +7520,8 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="26"/>
-      <c r="B142" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C142" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>7</v>
@@ -7512,7 +7530,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="26"/>
       <c r="C143" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -7520,159 +7538,150 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="26"/>
-      <c r="B144" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" s="7" t="s">
+      <c r="B144" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="26" t="s">
-        <v>107</v>
+      <c r="A145" s="26"/>
+      <c r="C145" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="26"/>
-      <c r="B146" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
+      <c r="B146" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="26"/>
-      <c r="B147" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
+      <c r="A147" s="26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="26"/>
-      <c r="B148" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B148" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="26"/>
+      <c r="B149" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="26"/>
-      <c r="B150" s="1" t="s">
-        <v>26</v>
+      <c r="B150" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="26"/>
-      <c r="B151" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="19" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="26"/>
-      <c r="B152" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>597</v>
+      <c r="B152" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="26"/>
       <c r="B153" s="12" t="s">
-        <v>493</v>
+        <v>27</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="26"/>
       <c r="B154" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="26"/>
+      <c r="B155" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="26"/>
+      <c r="B156" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="19" t="s">
+      <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="19" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="26" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="26" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="26" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I156" s="15"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="26"/>
-      <c r="B157" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C157" s="24"/>
-      <c r="D157" s="24"/>
-      <c r="I157" s="15"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="26"/>
-      <c r="B158" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E158" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="F158" s="1"/>
       <c r="I158" s="15"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="26"/>
-      <c r="B159" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E159" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="F159" s="1"/>
+      <c r="B159" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
       <c r="I159" s="15"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="26"/>
       <c r="B160" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="3" t="s">
@@ -7686,69 +7695,79 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="26"/>
-      <c r="B161" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C161" s="5"/>
-      <c r="D161" s="9" t="s">
+      <c r="B161" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="F161" s="5"/>
+        <v>597</v>
+      </c>
+      <c r="F161" s="1"/>
       <c r="I161" s="15"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="26" t="s">
-        <v>114</v>
-      </c>
+      <c r="A162" s="26"/>
+      <c r="B162" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="F162" s="1"/>
       <c r="I162" s="15"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
-      <c r="B163" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
+      <c r="B163" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="F163" s="5"/>
       <c r="I163" s="15"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="26"/>
-      <c r="B164" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>113</v>
+      <c r="A164" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="I164" s="15"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="26"/>
-      <c r="B165" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B165" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
       <c r="I165" s="15"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="26"/>
       <c r="B166" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="I166" s="15"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="26"/>
       <c r="B167" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
@@ -7758,71 +7777,64 @@
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="26"/>
       <c r="B168" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G168" s="1"/>
       <c r="I168" s="15"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="26"/>
       <c r="B169" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G169" s="1"/>
+      <c r="I169" s="15"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="26"/>
       <c r="B170" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G170" s="5"/>
+      <c r="G170" s="1"/>
+      <c r="I170" s="15"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="26"/>
       <c r="B171" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="26"/>
       <c r="B172" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="G172" s="5"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="26"/>
       <c r="B173" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>486</v>
+      <c r="C173" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E173" s="19" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -7830,14 +7842,11 @@
       <c r="B174" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>489</v>
+      <c r="C174" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E174" s="19" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7845,11 +7854,14 @@
       <c r="B175" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>124</v>
+      <c r="C175" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E175" s="19" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7858,13 +7870,13 @@
         <v>59</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -7872,14 +7884,11 @@
       <c r="B177" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>425</v>
+      <c r="C177" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E177" s="19" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -7888,13 +7897,13 @@
         <v>59</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -7903,13 +7912,13 @@
         <v>59</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -7918,13 +7927,13 @@
         <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -7932,14 +7941,14 @@
       <c r="B181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>487</v>
+      <c r="C181" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E181" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -7947,59 +7956,71 @@
       <c r="B182" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="26"/>
+      <c r="B183" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="26"/>
+      <c r="B184" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="19" t="s">
+      <c r="D184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="19" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="26" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="26" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="26" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="26" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="26"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="E185" s="30"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="26"/>
-      <c r="C186" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="26"/>
-      <c r="C187" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="B187" s="23"/>
+      <c r="C187" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D187" s="23" t="s">
         <v>535</v>
       </c>
+      <c r="E187" s="30"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="26"/>
       <c r="C188" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>535</v>
@@ -8008,7 +8029,7 @@
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="26"/>
       <c r="C189" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>535</v>
@@ -8017,7 +8038,7 @@
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="26"/>
       <c r="C190" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>535</v>
@@ -8025,35 +8046,35 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="26"/>
+      <c r="C191" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="26"/>
       <c r="C192" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="26"/>
-      <c r="C193" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="26"/>
       <c r="C194" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="26"/>
       <c r="C195" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>7</v>
@@ -8062,7 +8083,7 @@
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="26"/>
       <c r="C196" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
@@ -8071,125 +8092,122 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="26"/>
       <c r="C197" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="26" t="s">
-        <v>139</v>
+      <c r="A198" s="26"/>
+      <c r="C198" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="26"/>
-      <c r="B199" s="23" t="s">
+      <c r="C199" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="26"/>
+      <c r="B201" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="23"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="26"/>
-      <c r="B200" s="6" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="26"/>
-      <c r="B201" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="19" t="s">
-        <v>500</v>
-      </c>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="26"/>
-      <c r="B202" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C202" s="1" t="s">
+      <c r="B202" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="26"/>
+      <c r="B203" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="19" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="26"/>
+      <c r="B204" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="19" t="s">
+      <c r="D204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="19" t="s">
         <v>542</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="26"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="26"/>
-      <c r="B205" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23"/>
-      <c r="E205" s="23"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="26"/>
-      <c r="B206" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>142</v>
+      <c r="A206" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="26"/>
-      <c r="B207" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E207" s="19" t="s">
-        <v>601</v>
-      </c>
+      <c r="B207" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="26"/>
       <c r="B208" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="26"/>
       <c r="B209" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E209" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="26"/>
       <c r="B210" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
@@ -8198,66 +8216,63 @@
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="26"/>
       <c r="B211" s="3" t="s">
-        <v>147</v>
+        <v>456</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>7</v>
+        <v>536</v>
+      </c>
+      <c r="E211" s="19" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="26"/>
       <c r="B212" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="26"/>
+      <c r="B213" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="26"/>
+      <c r="B214" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D214" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="213" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="33"/>
-      <c r="B213" s="31" t="s">
+    <row r="215" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="33"/>
+      <c r="B215" s="31" t="s">
         <v>613</v>
       </c>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31" t="s">
+      <c r="C215" s="31"/>
+      <c r="D215" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E213" s="32"/>
-    </row>
-    <row r="214" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="8" t="s">
+      <c r="E215" s="32"/>
+    </row>
+    <row r="216" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="26"/>
+      <c r="B216" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D216" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E214" s="21" t="s">
+      <c r="E216" s="21" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="26"/>
-      <c r="B215" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="26"/>
-      <c r="B216" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -8266,13 +8281,10 @@
         <v>59</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>459</v>
+        <v>150</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E217" s="19" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -8281,10 +8293,10 @@
         <v>59</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>548</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -8292,11 +8304,14 @@
       <c r="B219" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>154</v>
+      <c r="C219" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>7</v>
+        <v>149</v>
+      </c>
+      <c r="E219" s="19" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -8305,10 +8320,10 @@
         <v>59</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>7</v>
+        <v>548</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -8316,8 +8331,8 @@
       <c r="B221" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>156</v>
+      <c r="C221" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
@@ -8329,7 +8344,7 @@
         <v>59</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>7</v>
@@ -8341,7 +8356,7 @@
         <v>59</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>7</v>
@@ -8352,14 +8367,11 @@
       <c r="B224" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C224" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>546</v>
+      <c r="C224" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -8367,14 +8379,11 @@
       <c r="B225" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C225" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D225" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="E225" s="19" t="s">
-        <v>545</v>
+      <c r="C225" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -8383,13 +8392,13 @@
         <v>59</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E226" s="19" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -8398,13 +8407,13 @@
         <v>59</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>463</v>
       </c>
       <c r="E227" s="19" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -8413,13 +8422,13 @@
         <v>59</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>463</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -8428,13 +8437,13 @@
         <v>59</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -8443,69 +8452,81 @@
         <v>59</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D230" s="11" t="s">
         <v>463</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="26" t="s">
-        <v>159</v>
+      <c r="A231" s="26"/>
+      <c r="B231" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E231" s="19" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="26"/>
-      <c r="B232" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C232" s="23"/>
-      <c r="D232" s="23"/>
-      <c r="E232" s="23"/>
+      <c r="B232" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="26"/>
-      <c r="B233" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>161</v>
+      <c r="A233" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="26"/>
-      <c r="B234" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B234" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C234" s="23"/>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="26"/>
       <c r="B235" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>470</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="26"/>
       <c r="B236" s="3" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>470</v>
+        <v>161</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="26"/>
       <c r="B237" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>470</v>
@@ -8514,113 +8535,101 @@
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="26"/>
       <c r="B238" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>56</v>
+        <v>470</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="26"/>
       <c r="B239" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>56</v>
+        <v>470</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="26"/>
       <c r="B240" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="26" t="s">
-        <v>169</v>
+      <c r="A241" s="26"/>
+      <c r="B241" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="26"/>
+      <c r="B242" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D242" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="26"/>
-      <c r="B244" s="23" t="s">
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="26"/>
+      <c r="B246" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C244" s="23"/>
-      <c r="D244" s="23"/>
-      <c r="E244" s="23"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="26"/>
-      <c r="B245" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A246" s="26"/>
-      <c r="B246" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>604</v>
-      </c>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="26"/>
       <c r="B247" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E247" s="19" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="26"/>
       <c r="B248" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>455</v>
+        <v>23</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E248" s="19" t="s">
-        <v>569</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -8629,13 +8638,13 @@
         <v>59</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>471</v>
+        <v>25</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E249" s="19" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -8644,13 +8653,13 @@
         <v>59</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E250" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -8658,11 +8667,14 @@
       <c r="B251" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>172</v>
+      <c r="C251" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -8670,11 +8682,14 @@
       <c r="B252" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C252" s="3" t="s">
-        <v>173</v>
+      <c r="C252" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -8683,7 +8698,7 @@
         <v>59</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>7</v>
@@ -8695,7 +8710,7 @@
         <v>59</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>7</v>
@@ -8707,7 +8722,7 @@
         <v>59</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>7</v>
@@ -8719,7 +8734,7 @@
         <v>59</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>7</v>
@@ -8731,7 +8746,7 @@
         <v>59</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>7</v>
@@ -8743,7 +8758,7 @@
         <v>59</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>7</v>
@@ -8755,7 +8770,7 @@
         <v>59</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>7</v>
@@ -8767,7 +8782,7 @@
         <v>59</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>7</v>
@@ -8779,7 +8794,7 @@
         <v>59</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>7</v>
@@ -8791,7 +8806,7 @@
         <v>59</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>7</v>
@@ -8803,7 +8818,7 @@
         <v>59</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>7</v>
@@ -8815,7 +8830,7 @@
         <v>59</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>7</v>
@@ -8827,7 +8842,7 @@
         <v>59</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>7</v>
@@ -8839,7 +8854,7 @@
         <v>59</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>7</v>
@@ -8851,7 +8866,7 @@
         <v>59</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>7</v>
@@ -8863,7 +8878,7 @@
         <v>59</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>7</v>
@@ -8875,7 +8890,7 @@
         <v>59</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>7</v>
@@ -8887,7 +8902,7 @@
         <v>59</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>7</v>
@@ -8899,7 +8914,7 @@
         <v>59</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>7</v>
@@ -8911,74 +8926,74 @@
         <v>59</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="26" t="s">
-        <v>194</v>
+      <c r="A273" s="26"/>
+      <c r="B273" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="26"/>
-      <c r="B274" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D274" s="23" t="s">
-        <v>161</v>
+      <c r="B274" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="26"/>
+      <c r="A275" s="26" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="26"/>
-      <c r="B276" s="23"/>
+      <c r="B276" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="C276" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D276" s="23"/>
-      <c r="E276" s="23"/>
+        <v>195</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A277" s="26"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="26"/>
-      <c r="B278" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B278" s="23"/>
+      <c r="C278" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D278" s="23"/>
+      <c r="E278" s="23"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="26"/>
+      <c r="A279" s="26" t="s">
+        <v>196</v>
+      </c>
       <c r="B279" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>198</v>
@@ -8990,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>198</v>
@@ -9002,7 +9017,7 @@
         <v>59</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>198</v>
@@ -9014,7 +9029,7 @@
         <v>59</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>198</v>
@@ -9022,52 +9037,49 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="26"/>
+      <c r="B283" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="26"/>
-      <c r="B284" s="23"/>
-      <c r="C284" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D284" s="23"/>
-      <c r="E284" s="23"/>
+      <c r="B284" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A285" s="26"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="26"/>
-      <c r="B286" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C286" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E286" s="19" t="s">
-        <v>571</v>
-      </c>
+      <c r="B286" s="23"/>
+      <c r="C286" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D286" s="23"/>
+      <c r="E286" s="23"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="26"/>
+      <c r="A287" s="26" t="s">
+        <v>204</v>
+      </c>
       <c r="B287" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>198</v>
@@ -9078,11 +9090,14 @@
       <c r="B288" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C288" s="11" t="s">
-        <v>207</v>
+      <c r="C288" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E288" s="19" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -9090,14 +9105,11 @@
       <c r="B289" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C289" s="12" t="s">
-        <v>429</v>
+      <c r="C289" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E289" s="19" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -9106,7 +9118,7 @@
         <v>59</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>198</v>
@@ -9117,11 +9129,14 @@
       <c r="B291" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C291" s="11" t="s">
-        <v>209</v>
+      <c r="C291" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E291" s="19" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -9130,7 +9145,7 @@
         <v>59</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>198</v>
@@ -9142,7 +9157,7 @@
         <v>59</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>198</v>
@@ -9153,14 +9168,11 @@
       <c r="B294" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C294" s="12" t="s">
-        <v>430</v>
+      <c r="C294" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E294" s="19" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -9168,14 +9180,11 @@
       <c r="B295" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C295" s="12" t="s">
-        <v>431</v>
+      <c r="C295" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E295" s="19" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -9184,13 +9193,13 @@
         <v>59</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E296" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -9198,11 +9207,14 @@
       <c r="B297" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C297" s="11" t="s">
-        <v>212</v>
+      <c r="C297" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E297" s="19" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -9210,11 +9222,14 @@
       <c r="B298" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>213</v>
+      <c r="C298" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E298" s="19" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -9223,25 +9238,22 @@
         <v>59</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="26"/>
       <c r="B300" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C300" s="12" t="s">
-        <v>433</v>
+      <c r="C300" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E300" s="19" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -9249,61 +9261,64 @@
       <c r="B301" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C301" s="13" t="s">
-        <v>434</v>
+      <c r="C301" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E301" s="19" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="26"/>
+      <c r="B302" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E302" s="19" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="26"/>
-      <c r="B303" s="23"/>
-      <c r="C303" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D303" s="23"/>
-      <c r="E303" s="23"/>
+      <c r="B303" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E303" s="19" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A304" s="26"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="26"/>
-      <c r="B305" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B305" s="23"/>
+      <c r="C305" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D305" s="23"/>
+      <c r="E305" s="23"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="26"/>
+      <c r="A306" s="26" t="s">
+        <v>215</v>
+      </c>
       <c r="B306" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>7</v>
@@ -9314,114 +9329,114 @@
       <c r="B307" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E307" s="19" t="s">
-        <v>578</v>
+      <c r="C307" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="26"/>
+      <c r="B308" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="26"/>
-      <c r="B309" s="23"/>
-      <c r="C309" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D309" s="23"/>
-      <c r="E309" s="23"/>
+      <c r="B309" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="19" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A310" s="26"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="26"/>
-      <c r="B311" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B311" s="23"/>
+      <c r="C311" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D311" s="23"/>
+      <c r="E311" s="23"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="26"/>
+      <c r="A312" s="26" t="s">
+        <v>219</v>
+      </c>
       <c r="B312" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>544</v>
+      <c r="C312" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E312" s="19" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="26"/>
+      <c r="B313" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="26"/>
-      <c r="B314" s="23"/>
-      <c r="C314" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D314" s="23"/>
-      <c r="E314" s="23"/>
+      <c r="B314" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E314" s="19" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A315" s="26"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="26"/>
-      <c r="B316" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B316" s="23"/>
+      <c r="C316" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D316" s="23"/>
+      <c r="E316" s="23"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="26"/>
+      <c r="A317" s="26" t="s">
+        <v>222</v>
+      </c>
       <c r="B317" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>198</v>
@@ -9433,7 +9448,7 @@
         <v>59</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>198</v>
@@ -9445,7 +9460,7 @@
         <v>59</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>198</v>
@@ -9457,7 +9472,7 @@
         <v>59</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>198</v>
@@ -9469,7 +9484,7 @@
         <v>59</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>446</v>
+        <v>227</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>198</v>
@@ -9481,7 +9496,7 @@
         <v>59</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>198</v>
@@ -9493,7 +9508,7 @@
         <v>59</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>231</v>
+        <v>446</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>198</v>
@@ -9504,14 +9519,11 @@
       <c r="B324" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>482</v>
+      <c r="C324" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E324" s="19" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -9519,61 +9531,64 @@
       <c r="B325" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>483</v>
+      <c r="C325" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E325" s="19" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="26"/>
+      <c r="B326" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E326" s="19" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="26"/>
-      <c r="B327" s="23"/>
-      <c r="C327" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D327" s="23"/>
-      <c r="E327" s="23"/>
+      <c r="B327" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A328" s="26"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="26"/>
-      <c r="B329" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B329" s="23"/>
+      <c r="C329" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D329" s="23"/>
+      <c r="E329" s="23"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="26"/>
+      <c r="A330" s="26" t="s">
+        <v>232</v>
+      </c>
       <c r="B330" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>198</v>
@@ -9585,7 +9600,7 @@
         <v>59</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>198</v>
@@ -9597,7 +9612,7 @@
         <v>59</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>198</v>
@@ -9605,67 +9620,67 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="26"/>
-      <c r="B333" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E333" s="19" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="26"/>
+      <c r="B334" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="26"/>
-      <c r="B335" s="23"/>
-      <c r="C335" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D335" s="23"/>
-      <c r="E335" s="23"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B335" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="26"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="26"/>
-      <c r="B337" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C337" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B337" s="23"/>
+      <c r="C337" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D337" s="23"/>
+      <c r="E337" s="23"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="26"/>
+      <c r="A338" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="B338" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>472</v>
+        <v>198</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -9674,7 +9689,7 @@
         <v>59</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>198</v>
@@ -9686,10 +9701,10 @@
         <v>59</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>198</v>
+        <v>472</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -9697,14 +9712,11 @@
       <c r="B341" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C341" s="12" t="s">
-        <v>435</v>
+      <c r="C341" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E341" s="19" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -9712,14 +9724,11 @@
       <c r="B342" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C342" s="12" t="s">
-        <v>436</v>
+      <c r="C342" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E342" s="19" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -9728,13 +9737,13 @@
         <v>59</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E343" s="19" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -9742,11 +9751,14 @@
       <c r="B344" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>244</v>
+      <c r="C344" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -9754,11 +9766,14 @@
       <c r="B345" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C345" s="11" t="s">
-        <v>245</v>
+      <c r="C345" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -9767,7 +9782,7 @@
         <v>59</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>198</v>
@@ -9779,7 +9794,7 @@
         <v>59</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>198</v>
@@ -9790,14 +9805,11 @@
       <c r="B348" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C348" s="14" t="s">
-        <v>537</v>
+      <c r="C348" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E348" s="19" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -9806,7 +9818,7 @@
         <v>59</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>198</v>
@@ -9817,11 +9829,14 @@
       <c r="B350" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C350" s="11" t="s">
-        <v>250</v>
+      <c r="C350" s="14" t="s">
+        <v>537</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E350" s="19" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -9830,7 +9845,7 @@
         <v>59</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>198</v>
@@ -9842,7 +9857,7 @@
         <v>59</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>198</v>
@@ -9854,7 +9869,7 @@
         <v>59</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>198</v>
@@ -9865,14 +9880,11 @@
       <c r="B354" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C354" s="12" t="s">
-        <v>437</v>
+      <c r="C354" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E354" s="19" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -9880,14 +9892,11 @@
       <c r="B355" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C355" s="12" t="s">
-        <v>438</v>
+      <c r="C355" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E355" s="19" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -9896,60 +9905,66 @@
         <v>59</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E356" s="19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="26"/>
+      <c r="B357" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E357" s="19" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="26"/>
-      <c r="B358" s="23"/>
-      <c r="C358" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D358" s="23"/>
-      <c r="E358" s="23"/>
+      <c r="B358" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E358" s="19" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A359" s="26"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="26"/>
-      <c r="B360" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B360" s="23"/>
+      <c r="C360" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D360" s="23"/>
+      <c r="E360" s="23"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="26"/>
+      <c r="A361" s="26" t="s">
+        <v>254</v>
+      </c>
       <c r="B361" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>198</v>
@@ -9961,7 +9976,7 @@
         <v>59</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>198</v>
@@ -9973,7 +9988,7 @@
         <v>59</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>198</v>
@@ -9985,7 +10000,7 @@
         <v>59</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>198</v>
@@ -9997,7 +10012,7 @@
         <v>59</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>198</v>
@@ -10008,14 +10023,11 @@
       <c r="B366" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C366" s="1" t="s">
-        <v>497</v>
+      <c r="C366" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E366" s="19" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -10023,61 +10035,64 @@
       <c r="B367" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C367" s="1" t="s">
-        <v>498</v>
+      <c r="C367" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E367" s="19" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="26"/>
+      <c r="B368" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E368" s="19" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="26"/>
-      <c r="B369" s="23"/>
-      <c r="C369" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D369" s="23"/>
-      <c r="E369" s="23"/>
+      <c r="B369" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E369" s="19" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A370" s="26"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="26"/>
-      <c r="B371" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B371" s="23"/>
+      <c r="C371" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D371" s="23"/>
+      <c r="E371" s="23"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="26"/>
+      <c r="A372" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="B372" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>198</v>
@@ -10089,10 +10104,10 @@
         <v>59</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -10101,7 +10116,7 @@
         <v>59</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>198</v>
@@ -10113,10 +10128,10 @@
         <v>59</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -10125,7 +10140,7 @@
         <v>59</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>198</v>
@@ -10137,7 +10152,7 @@
         <v>59</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>198</v>
@@ -10149,7 +10164,7 @@
         <v>59</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>198</v>
@@ -10161,7 +10176,7 @@
         <v>59</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>198</v>
@@ -10173,7 +10188,7 @@
         <v>59</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>198</v>
@@ -10181,49 +10196,49 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="26"/>
+      <c r="B381" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="26"/>
-      <c r="B382" s="23"/>
-      <c r="C382" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D382" s="23"/>
-      <c r="E382" s="23"/>
+      <c r="B382" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A383" s="26"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="26"/>
-      <c r="B384" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B384" s="23"/>
+      <c r="C384" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D384" s="23"/>
+      <c r="E384" s="23"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="26"/>
+      <c r="A385" s="26" t="s">
+        <v>274</v>
+      </c>
       <c r="B385" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>198</v>
@@ -10235,16 +10250,10 @@
         <v>59</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>538</v>
+        <v>276</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E386" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="F386" s="3" t="s">
-        <v>445</v>
+        <v>198</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -10252,14 +10261,11 @@
       <c r="B387" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C387" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E387" s="19" t="s">
-        <v>521</v>
+      <c r="C387" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -10268,10 +10274,16 @@
         <v>59</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>279</v>
+        <v>538</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>198</v>
+        <v>531</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -10279,11 +10291,14 @@
       <c r="B389" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C389" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>198</v>
+      <c r="C389" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -10292,7 +10307,7 @@
         <v>59</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>198</v>
@@ -10304,13 +10319,10 @@
         <v>59</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E391" s="21" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -10319,7 +10331,7 @@
         <v>59</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>198</v>
@@ -10331,10 +10343,13 @@
         <v>59</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>284</v>
+        <v>539</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E393" s="21" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -10343,7 +10358,7 @@
         <v>59</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>198</v>
@@ -10355,7 +10370,7 @@
         <v>59</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>198</v>
@@ -10366,14 +10381,11 @@
       <c r="B396" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>528</v>
+      <c r="C396" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E396" s="19" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -10382,7 +10394,7 @@
         <v>59</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>198</v>
@@ -10393,11 +10405,14 @@
       <c r="B398" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C398" s="3" t="s">
-        <v>288</v>
+      <c r="C398" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -10405,14 +10420,11 @@
       <c r="B399" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C399" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E399" s="19" t="s">
-        <v>583</v>
+      <c r="C399" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -10421,7 +10433,7 @@
         <v>59</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>198</v>
@@ -10433,13 +10445,13 @@
         <v>59</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D401" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E401" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -10448,7 +10460,7 @@
         <v>59</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>198</v>
@@ -10459,11 +10471,14 @@
       <c r="B403" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C403" s="7" t="s">
-        <v>291</v>
+      <c r="C403" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>198</v>
+      </c>
+      <c r="E403" s="19" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -10472,25 +10487,22 @@
         <v>59</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="26"/>
       <c r="B405" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C405" s="1" t="s">
-        <v>513</v>
+      <c r="C405" s="7" t="s">
+        <v>615</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E405" s="19" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -10498,47 +10510,41 @@
       <c r="B406" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C406" s="1" t="s">
-        <v>501</v>
+      <c r="C406" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E406" s="19" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="26"/>
       <c r="B407" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E407" s="19" t="s">
-        <v>518</v>
-      </c>
-      <c r="F407" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="26"/>
       <c r="B408" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E408" s="19" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -10547,28 +10553,31 @@
         <v>59</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E409" s="19" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="26"/>
       <c r="B410" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E410" s="19" t="s">
-        <v>508</v>
+        <v>585</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -10577,13 +10586,13 @@
         <v>59</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E411" s="19" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -10592,13 +10601,13 @@
         <v>59</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E412" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -10607,13 +10616,13 @@
         <v>59</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E413" s="19" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -10622,13 +10631,13 @@
         <v>59</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E414" s="19" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -10637,13 +10646,13 @@
         <v>59</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E415" s="19" t="s">
-        <v>586</v>
+        <v>515</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -10652,13 +10661,13 @@
         <v>59</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E416" s="19" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -10667,61 +10676,67 @@
         <v>59</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>198</v>
       </c>
       <c r="E417" s="19" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="26"/>
-      <c r="C418" s="1"/>
+      <c r="B418" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E418" s="19" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="26"/>
-      <c r="B419" s="23"/>
-      <c r="C419" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D419" s="23"/>
-      <c r="E419" s="23"/>
+      <c r="B419" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E419" s="19" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A420" s="26"/>
+      <c r="C420" s="1"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="26"/>
-      <c r="B421" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="B421" s="23"/>
+      <c r="C421" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D421" s="23"/>
+      <c r="E421" s="23"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="26"/>
+      <c r="A422" s="26" t="s">
+        <v>293</v>
+      </c>
       <c r="B422" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>56</v>
@@ -10733,10 +10748,10 @@
         <v>59</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -10745,10 +10760,10 @@
         <v>59</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>549</v>
+        <v>296</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -10757,10 +10772,10 @@
         <v>59</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -10768,14 +10783,11 @@
       <c r="B426" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C426" s="1" t="s">
-        <v>326</v>
+      <c r="C426" s="3" t="s">
+        <v>549</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E426" s="19" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -10783,54 +10795,57 @@
       <c r="B427" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C427" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E427" s="19" t="s">
-        <v>587</v>
+      <c r="C427" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D428" s="1"/>
+      <c r="A428" s="26"/>
+      <c r="B428" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E428" s="19" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="26"/>
-      <c r="B429" s="23"/>
-      <c r="C429" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D429" s="23"/>
-      <c r="E429" s="30"/>
+      <c r="B429" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E429" s="19" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="26"/>
-      <c r="B430" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A430" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D430" s="1"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="26"/>
-      <c r="B431" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B431" s="23"/>
+      <c r="C431" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D431" s="23"/>
+      <c r="E431" s="30"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="26"/>
@@ -10838,10 +10853,10 @@
         <v>59</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -10850,10 +10865,10 @@
         <v>59</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -10862,7 +10877,7 @@
         <v>59</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>304</v>
@@ -10874,7 +10889,7 @@
         <v>59</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>304</v>
@@ -10886,10 +10901,10 @@
         <v>59</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -10898,10 +10913,10 @@
         <v>59</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -10910,7 +10925,7 @@
         <v>59</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>56</v>
@@ -10918,62 +10933,56 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="26"/>
-      <c r="B439" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C439" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="D439" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="E439" s="19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B439" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="26"/>
-      <c r="B440" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C440" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D440" s="17" t="s">
+      <c r="B440" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D440" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E440" s="19" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="26"/>
       <c r="B441" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C441" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="E441" s="19" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A442" s="26"/>
       <c r="B442" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C442" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D442" s="17" t="s">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="E442" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -10982,96 +10991,104 @@
         <v>59</v>
       </c>
       <c r="C443" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D443" s="17" t="s">
         <v>304</v>
       </c>
       <c r="E443" s="19" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444" s="26"/>
+      <c r="B444" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C444" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="D444" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E444" s="19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A445" s="26"/>
+      <c r="B445" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C445" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D445" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E445" s="19" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A444" s="26" t="s">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="26" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" s="26"/>
-      <c r="B445" s="23"/>
-      <c r="C445" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D445" s="23"/>
-      <c r="E445" s="23"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A446" s="26"/>
-      <c r="B446" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="26"/>
-      <c r="B447" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C447" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D447" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B447" s="23"/>
+      <c r="C447" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D447" s="23"/>
+      <c r="E447" s="23"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="26"/>
       <c r="B448" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="C448" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="26"/>
+      <c r="B449" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="26"/>
+      <c r="B450" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D448" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E448" s="19" t="s">
+      <c r="D450" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E450" s="19" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="26"/>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="26" t="s">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="26"/>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="26" t="s">
         <v>315</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="26" t="s">
-        <v>317</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>59</v>
@@ -11080,9 +11097,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>59</v>
@@ -11091,9 +11108,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>59</v>
@@ -11102,14 +11119,36 @@
         <v>113</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B455" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D455" s="3" t="s">
+      <c r="B457" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D457" s="3" t="s">
         <v>113</v>
       </c>
     </row>
